--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrw50\Desktop\College Classes\COP4534\DSA2_Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EEBD48E-03CA-4D6E-8B12-96AADA743E69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1B3A08-818C-448C-BDC4-FFE41A2205F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{B2129B74-4182-4A2C-97B7-B383AE108B3D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>number of cities</t>
   </si>
@@ -61,13 +61,16 @@
   </si>
   <si>
     <t>Genetic runtime (s)</t>
+  </si>
+  <si>
+    <t>All cities run with 500 tours, 10 generations, and 50 mutations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,16 +84,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -98,15 +114,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793D9BB9-C46A-42E5-970B-669A39C6D80D}">
-  <dimension ref="A2:G6"/>
+  <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,7 +583,20 @@
         <v>1.60646</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:E8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
